--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_beta_versionB_Abs_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_beta_versionB_Abs_deltax_22-Dec-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED313C0-F570-4018-AB93-C662247B6647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A658F774-603B-4A04-94B7-5CB5AECD4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{B8AA3D9F-CC04-4CC7-AEF9-06C5E298B7C5}"/>
+    <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{9D21A845-5E35-4F71-84F2-91E411EEFFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Var1</t>
+    <t>Var1_1</t>
+  </si>
+  <si>
+    <t>Var1_2</t>
+  </si>
+  <si>
+    <t>Var1_3</t>
+  </si>
+  <si>
+    <t>Var1_4</t>
   </si>
 </sst>
 </file>
@@ -392,19 +401,588 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135058A8-872B-4468-BEFB-7E40B2018B8C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCB4586-340A-43E1-BA86-3F5C7B82AF61}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.99702513414579097</v>
+      </c>
+      <c r="B2">
+        <v>0.49899243203550692</v>
+      </c>
+      <c r="C2">
+        <v>1.0013073123745411</v>
+      </c>
+      <c r="D2">
+        <v>0.49751020815392943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.34874501253427115</v>
+      </c>
+      <c r="B3">
+        <v>0.19375661026604127</v>
+      </c>
+      <c r="C3">
+        <v>0.32256347629657944</v>
+      </c>
+      <c r="D3">
+        <v>0.18711974564388059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.0970251341457919</v>
+      </c>
+      <c r="B4">
+        <v>0.69899243203550621</v>
+      </c>
+      <c r="C4">
+        <v>1.1013073123745429</v>
+      </c>
+      <c r="D4">
+        <v>0.69751020815392994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.34874501253427104</v>
+      </c>
+      <c r="B5">
+        <v>0.19375661026604141</v>
+      </c>
+      <c r="C5">
+        <v>0.3225634762965795</v>
+      </c>
+      <c r="D5">
+        <v>0.18711974564388062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.2470251341457945</v>
+      </c>
+      <c r="B6">
+        <v>0.99899243203550603</v>
+      </c>
+      <c r="C6">
+        <v>1.2513073123745413</v>
+      </c>
+      <c r="D6">
+        <v>0.99751020815392843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.34874501253427104</v>
+      </c>
+      <c r="B7">
+        <v>0.19375661026604141</v>
+      </c>
+      <c r="C7">
+        <v>0.32256347629657944</v>
+      </c>
+      <c r="D7">
+        <v>0.18711974564388067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.3970251341457902</v>
+      </c>
+      <c r="B8">
+        <v>1.2989924320355049</v>
+      </c>
+      <c r="C8">
+        <v>1.4013073123745414</v>
+      </c>
+      <c r="D8">
+        <v>1.2975102081539294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3487450125342712</v>
+      </c>
+      <c r="B9">
+        <v>0.1937566102660413</v>
+      </c>
+      <c r="C9">
+        <v>0.3225634762965795</v>
+      </c>
+      <c r="D9">
+        <v>0.18711974564388059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.0001567183621949</v>
+      </c>
+      <c r="B10">
+        <v>0.5005878359928434</v>
+      </c>
+      <c r="C10">
+        <v>0.99674639202962412</v>
+      </c>
+      <c r="D10">
+        <v>0.50121059008798818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.15095714063976304</v>
+      </c>
+      <c r="B11">
+        <v>8.8786749384016331E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.13607960761675314</v>
+      </c>
+      <c r="D11">
+        <v>8.7741324908127749E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.1001567183621936</v>
+      </c>
+      <c r="B12">
+        <v>0.70058783599284269</v>
+      </c>
+      <c r="C12">
+        <v>1.0967463920296241</v>
+      </c>
+      <c r="D12">
+        <v>0.70121059008798792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.15095714063976304</v>
+      </c>
+      <c r="B13">
+        <v>8.8786749384016317E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D13">
+        <v>8.7741324908127763E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2501567183621953</v>
+      </c>
+      <c r="B14">
+        <v>1.000587835992842</v>
+      </c>
+      <c r="C14">
+        <v>1.2467463920296236</v>
+      </c>
+      <c r="D14">
+        <v>1.0012105900879886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.15095714063976293</v>
+      </c>
+      <c r="B15">
+        <v>8.8786749384016317E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D15">
+        <v>8.7741324908127749E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.4001567183621932</v>
+      </c>
+      <c r="B16">
+        <v>1.3005878359928433</v>
+      </c>
+      <c r="C16">
+        <v>1.3967463920296264</v>
+      </c>
+      <c r="D16">
+        <v>1.3012105900879878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.15095714063976307</v>
+      </c>
+      <c r="B17">
+        <v>8.8786749384016206E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D17">
+        <v>8.7741324908127749E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.99985775667022037</v>
+      </c>
+      <c r="B18">
+        <v>0.50171078286264537</v>
+      </c>
+      <c r="C18">
+        <v>0.99975187771194396</v>
+      </c>
+      <c r="D18">
+        <v>0.50165069442228361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.10715738113226876</v>
+      </c>
+      <c r="B19">
+        <v>6.4497423499402337E-2</v>
+      </c>
+      <c r="C19">
+        <v>9.7321160300022053E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.4523706021676883E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.0998577566702241</v>
+      </c>
+      <c r="B20">
+        <v>0.70171078286264432</v>
+      </c>
+      <c r="C20">
+        <v>1.0997518777119442</v>
+      </c>
+      <c r="D20">
+        <v>0.70165069442228534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.10715738113226879</v>
+      </c>
+      <c r="B21">
+        <v>6.4497423499402406E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.7321160300022053E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.4523706021676869E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.2498577566702198</v>
+      </c>
+      <c r="B22">
+        <v>1.0017107828626448</v>
+      </c>
+      <c r="C22">
+        <v>1.2497518777119447</v>
+      </c>
+      <c r="D22">
+        <v>1.0016506944222849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.10715738113226872</v>
+      </c>
+      <c r="B23">
+        <v>6.4497423499402462E-2</v>
+      </c>
+      <c r="C23">
+        <v>9.7321160300022108E-2</v>
+      </c>
+      <c r="D23">
+        <v>6.4523706021676855E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.3998577566702208</v>
+      </c>
+      <c r="B24">
+        <v>1.3017107828626449</v>
+      </c>
+      <c r="C24">
+        <v>1.3997518777119449</v>
+      </c>
+      <c r="D24">
+        <v>1.3016506944222856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.10715738113226884</v>
+      </c>
+      <c r="B25">
+        <v>6.4497423499402351E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.732116030002208E-2</v>
+      </c>
+      <c r="D25">
+        <v>6.4523706021676869E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.0018102004623644</v>
+      </c>
+      <c r="B26">
+        <v>0.50065434298078748</v>
+      </c>
+      <c r="C26">
+        <v>1.0004606272199388</v>
+      </c>
+      <c r="D26">
+        <v>0.50067989782077671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.1493730400781035E-2</v>
+      </c>
+      <c r="B27">
+        <v>3.2177254673953354E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.7035424895080495E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.2187802532799778E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.1018102004623644</v>
+      </c>
+      <c r="B28">
+        <v>0.70065434298078666</v>
+      </c>
+      <c r="C28">
+        <v>1.100460627219938</v>
+      </c>
+      <c r="D28">
+        <v>0.70067989782077666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.1493730400780667E-2</v>
+      </c>
+      <c r="B29">
+        <v>3.2177254673953479E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.7035424895080474E-2</v>
+      </c>
+      <c r="D29">
+        <v>3.2187802532799792E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.251810200462361</v>
+      </c>
+      <c r="B30">
+        <v>1.0006543429807844</v>
+      </c>
+      <c r="C30">
+        <v>1.2504606272199392</v>
+      </c>
+      <c r="D30">
+        <v>1.0006798978207778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.1493730400780945E-2</v>
+      </c>
+      <c r="B31">
+        <v>3.2177254673953264E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.7035424895080523E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.2187802532799771E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.4018102004623623</v>
+      </c>
+      <c r="B32">
+        <v>1.3006543429807835</v>
+      </c>
+      <c r="C32">
+        <v>1.4004606272199374</v>
+      </c>
+      <c r="D32">
+        <v>1.3006798978207776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.1493730400780771E-2</v>
+      </c>
+      <c r="B33">
+        <v>3.2177254673953194E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.7035424895080474E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.2187802532799771E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.0007521566381177</v>
+      </c>
+      <c r="B34">
+        <v>0.49923449286633292</v>
+      </c>
+      <c r="C34">
+        <v>1.0006091570469429</v>
+      </c>
+      <c r="D34">
+        <v>0.49922264021252438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.7513741447333625E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.339139380008378E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.4532435843643017E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.3390714248771607E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.1007521566381193</v>
+      </c>
+      <c r="B36">
+        <v>0.69923449286633588</v>
+      </c>
+      <c r="C36">
+        <v>1.1006091570469441</v>
+      </c>
+      <c r="D36">
+        <v>0.69922264021252423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.751374144733418E-2</v>
+      </c>
+      <c r="B37">
+        <v>2.339139380008402E-2</v>
+      </c>
+      <c r="C37">
+        <v>3.4532435843643031E-2</v>
+      </c>
+      <c r="D37">
+        <v>2.3390714248771614E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.2507521566381223</v>
+      </c>
+      <c r="B38">
+        <v>0.99923449286634014</v>
+      </c>
+      <c r="C38">
+        <v>1.2506091570469429</v>
+      </c>
+      <c r="D38">
+        <v>0.99922264021252405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.7513741447333666E-2</v>
+      </c>
+      <c r="B39">
+        <v>2.339139380008428E-2</v>
+      </c>
+      <c r="C39">
+        <v>3.4532435843642996E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.3390714248771663E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.4007521566381218</v>
+      </c>
+      <c r="B40">
+        <v>1.2992344928663453</v>
+      </c>
+      <c r="C40">
+        <v>1.4006091570469432</v>
+      </c>
+      <c r="D40">
+        <v>1.2992226402125249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3.751374144733316E-2</v>
+      </c>
+      <c r="B41">
+        <v>2.3391393800084329E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.4532435843643003E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.3390714248771621E-2</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4353AB-241A-442C-9996-C4DED60960FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70DC87C-999C-4F4C-BCD5-E883EFC5A912}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -425,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3765D54-6C73-4E9D-9340-5DF3EFF5DE50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC494A94-9C50-430D-80A2-867E693376C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
